--- a/Load Excel Tables with Dynamic Column Structure/Demo_Workbook.xlsx
+++ b/Load Excel Tables with Dynamic Column Structure/Demo_Workbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37e91cd2ba920954/Υπολογιστής/PBI-Linkedin/Solutions/0026 - Load Excel Workbooks with changing columns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stvha\OneDrive\Υπολογιστής\PBI-Linkedin\Solutions\0026 - Load Excel Workbooks with changing columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>Column_test_00</t>
   </si>
@@ -111,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,8 +444,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45568</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -452,18 +454,9 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
       <c r="H2">
         <v>1000</v>
       </c>
@@ -473,16 +466,14 @@
       <c r="J2">
         <v>1000</v>
       </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
       <c r="L2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A6" ca="1" si="0">TODAY()</f>
+        <v>45568</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -493,15 +484,9 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <v>1001</v>
-      </c>
       <c r="H3">
         <v>1001</v>
       </c>
@@ -511,16 +496,14 @@
       <c r="J3">
         <v>1001</v>
       </c>
-      <c r="K3">
-        <v>1001</v>
-      </c>
       <c r="L3">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -531,15 +514,9 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
-        <v>1002</v>
-      </c>
       <c r="H4">
         <v>1002</v>
       </c>
@@ -549,16 +526,14 @@
       <c r="J4">
         <v>1002</v>
       </c>
-      <c r="K4">
-        <v>1002</v>
-      </c>
       <c r="L4">
         <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -575,9 +550,6 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>1003</v>
-      </c>
       <c r="H5">
         <v>1003</v>
       </c>
@@ -587,16 +559,14 @@
       <c r="J5">
         <v>1003</v>
       </c>
-      <c r="K5">
-        <v>1003</v>
-      </c>
       <c r="L5">
         <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -612,9 +582,6 @@
       </c>
       <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6">
-        <v>1004</v>
       </c>
       <c r="H6">
         <v>1004</v>
@@ -641,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,66 +635,49 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45568</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A6" ca="1" si="0">TODAY()</f>
+        <v>45568</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4">
         <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
@@ -736,13 +686,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
